--- a/Shuyue/G_DB/jgd.xlsx
+++ b/Shuyue/G_DB/jgd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -295,18 +295,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ClosingDdate</t>
+    <t>ClosingDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +364,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,9 +450,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="2" customWidth="1"/>
@@ -672,7 +682,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -710,7 +720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>20161109</v>
       </c>
@@ -748,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>20161109</v>
       </c>
@@ -786,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>20161109</v>
       </c>
@@ -824,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>20161108</v>
       </c>
@@ -862,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>20161108</v>
       </c>
@@ -900,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>20161108</v>
       </c>
@@ -938,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>20161104</v>
       </c>
@@ -976,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>20161104</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>20161027</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>20161025</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>20161013</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>20161012</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>20160929</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>20160929</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>20160928</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>20160928</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>20160927</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>20160927</v>
       </c>
@@ -1394,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>20160926</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20160923</v>
       </c>
@@ -1470,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20160923</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20160922</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20160922</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>20160922</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>20160921</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>20160921</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>20160919</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>20160913</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>20160913</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>20160912</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>20160908</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>20160908</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>20160907</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>20160831</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>20160831</v>
       </c>
@@ -2040,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>20160830</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>20160830</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>20160826</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>20160826</v>
       </c>
@@ -2192,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>20160825</v>
       </c>
@@ -2230,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>20160824</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>20160824</v>
       </c>
@@ -2306,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>20160824</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>20160823</v>
       </c>
@@ -2382,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>20160822</v>
       </c>
@@ -2420,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>20160819</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>20160819</v>
       </c>
@@ -2496,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>20160818</v>
       </c>
@@ -2534,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>20160818</v>
       </c>
@@ -2572,7 +2582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>20160817</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>20160817</v>
       </c>
@@ -2648,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>20160816</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>20160816</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>20160816</v>
       </c>
@@ -2762,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>20160815</v>
       </c>
@@ -2800,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>20160815</v>
       </c>
@@ -2838,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>20160815</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>20160815</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>20160812</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>20160812</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>20160811</v>
       </c>
@@ -3028,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>20160810</v>
       </c>
@@ -3066,7 +3076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>20160803</v>
       </c>
@@ -3104,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>20160729</v>
       </c>
@@ -3142,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>20160728</v>
       </c>
@@ -3180,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>20160728</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>20160727</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>20160727</v>
       </c>
@@ -3294,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>20160726</v>
       </c>
@@ -3332,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>20160722</v>
       </c>
@@ -3370,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>20160722</v>
       </c>
@@ -3408,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>20160721</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>20160720</v>
       </c>
@@ -3484,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>20160720</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>20160719</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>20160719</v>
       </c>
@@ -3598,7 +3608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>20160718</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>20160718</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>20160715</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>20160715</v>
       </c>
@@ -3750,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>20160714</v>
       </c>
@@ -3788,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>20160713</v>
       </c>
@@ -3826,7 +3836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>20160713</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>20160713</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>20160713</v>
       </c>
@@ -3940,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>20160712</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>20160712</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>20160712</v>
       </c>
@@ -4054,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>20160712</v>
       </c>
@@ -4092,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>20160711</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>20160708</v>
       </c>
@@ -4168,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>20160707</v>
       </c>
@@ -4206,7 +4216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>20160707</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>20160706</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>20160706</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>20160705</v>
       </c>
@@ -4358,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>20160704</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>20160630</v>
       </c>
@@ -4434,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>20160629</v>
       </c>
@@ -4472,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>20160628</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>20160628</v>
       </c>
@@ -4548,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>20160627</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>20160627</v>
       </c>
@@ -4624,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>20160624</v>
       </c>
@@ -4662,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>20160624</v>
       </c>
@@ -4700,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>20160623</v>
       </c>
@@ -4738,7 +4748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>20160623</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>20160622</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>20160622</v>
       </c>
@@ -4852,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>20160621</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>20160621</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>20160620</v>
       </c>
@@ -4966,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>20160620</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>20160617</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>20160617</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>20160617</v>
       </c>
@@ -5118,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>20160615</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>20160614</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>20160613</v>
       </c>
@@ -5232,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>20160608</v>
       </c>
@@ -5270,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>20160608</v>
       </c>
@@ -5308,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>20160603</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>20160602</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>20160602</v>
       </c>
@@ -5422,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>20160601</v>
       </c>
@@ -5460,7 +5470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>20160531</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>20160527</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>20160527</v>
       </c>
@@ -5574,7 +5584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>20160526</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>20160523</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>20160523</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>20160520</v>
       </c>
@@ -5726,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>20160520</v>
       </c>
@@ -5764,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>20160520</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>20160519</v>
       </c>
@@ -5840,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>20160518</v>
       </c>
@@ -5878,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>20160518</v>
       </c>
@@ -5916,7 +5926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>20160518</v>
       </c>
@@ -5954,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>20160517</v>
       </c>
@@ -5992,7 +6002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>20160517</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>20160517</v>
       </c>
@@ -6068,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>20160516</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>20160516</v>
       </c>
@@ -6144,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>20160511</v>
       </c>
@@ -6182,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>20160510</v>
       </c>
@@ -6220,7 +6230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>20160510</v>
       </c>
@@ -6258,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>20160509</v>
       </c>
@@ -6296,7 +6306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>20160509</v>
       </c>
@@ -6334,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>20160506</v>
       </c>
@@ -6372,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>20160505</v>
       </c>
@@ -6410,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>20160505</v>
       </c>
@@ -6448,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>20160504</v>
       </c>
@@ -6486,7 +6496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>20160504</v>
       </c>
@@ -6524,7 +6534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>20160503</v>
       </c>
@@ -6562,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>20160503</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>20160425</v>
       </c>
@@ -6638,7 +6648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>20160422</v>
       </c>
@@ -6676,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>20160421</v>
       </c>
@@ -6714,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>20160420</v>
       </c>
@@ -6752,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>20160419</v>
       </c>
@@ -6790,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>20160418</v>
       </c>
@@ -6828,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>20160415</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>20160413</v>
       </c>
@@ -6904,7 +6914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>20160413</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>20160411</v>
       </c>
@@ -6980,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>20160411</v>
       </c>
@@ -7018,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>20160411</v>
       </c>
@@ -7056,7 +7066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>20160411</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>20160408</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>20160407</v>
       </c>
@@ -7170,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>20160407</v>
       </c>
@@ -7208,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>20160406</v>
       </c>
@@ -7246,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>20160405</v>
       </c>
@@ -7284,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>20160405</v>
       </c>
@@ -7322,7 +7332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>20160401</v>
       </c>
@@ -7360,7 +7370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>20160331</v>
       </c>
@@ -7398,7 +7408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>20160331</v>
       </c>
@@ -7436,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>20160330</v>
       </c>
@@ -7474,7 +7484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>20160330</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>20160330</v>
       </c>
@@ -7550,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>20160329</v>
       </c>
@@ -7588,7 +7598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>20160329</v>
       </c>
@@ -7626,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>20160328</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>20160325</v>
       </c>
@@ -7702,7 +7712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>20160325</v>
       </c>
@@ -7740,7 +7750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>20160324</v>
       </c>
@@ -7778,7 +7788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>20160324</v>
       </c>
@@ -7816,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>20160323</v>
       </c>
@@ -7854,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>20160323</v>
       </c>
@@ -7892,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>20160323</v>
       </c>
@@ -7930,7 +7940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>20160323</v>
       </c>
@@ -7968,7 +7978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>20160323</v>
       </c>
@@ -8006,7 +8016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>20160321</v>
       </c>
@@ -8044,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>20160318</v>
       </c>
@@ -8082,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>20160317</v>
       </c>
@@ -8120,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>20160308</v>
       </c>
@@ -8158,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>20160308</v>
       </c>
@@ -8196,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>20160304</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>20160303</v>
       </c>
@@ -8272,7 +8282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>20160302</v>
       </c>
@@ -8310,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>20160229</v>
       </c>
@@ -8348,7 +8358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>20160226</v>
       </c>
@@ -8386,7 +8396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>20160226</v>
       </c>
@@ -8424,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>20160225</v>
       </c>
@@ -8462,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>20160224</v>
       </c>
@@ -8500,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>20160224</v>
       </c>
@@ -8538,7 +8548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>20160223</v>
       </c>
@@ -8576,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>20160223</v>
       </c>
@@ -8614,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>20160223</v>
       </c>
@@ -8652,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>20160223</v>
       </c>
@@ -8690,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>20160222</v>
       </c>
@@ -8728,7 +8738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>20160219</v>
       </c>
@@ -8766,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>20160218</v>
       </c>
@@ -8804,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>20160218</v>
       </c>
@@ -8842,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>20160205</v>
       </c>
@@ -8880,7 +8890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>20160119</v>
       </c>
@@ -8918,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>20160119</v>
       </c>
@@ -8956,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>20160105</v>
       </c>
@@ -8994,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>20160105</v>
       </c>
@@ -9032,7 +9042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>20151231</v>
       </c>
@@ -9070,7 +9080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>20151231</v>
       </c>
@@ -9108,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>20151228</v>
       </c>
@@ -9146,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>20151228</v>
       </c>
@@ -9184,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>20151225</v>
       </c>
@@ -9222,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>20151225</v>
       </c>
@@ -9260,7 +9270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>20151225</v>
       </c>
@@ -9298,7 +9308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>20151225</v>
       </c>
@@ -9336,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>20151224</v>
       </c>
@@ -9374,7 +9384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>20151223</v>
       </c>
@@ -9412,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>20151223</v>
       </c>
@@ -9450,7 +9460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>20151223</v>
       </c>
@@ -9488,7 +9498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>20151222</v>
       </c>
@@ -9526,7 +9536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>20151218</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>20151217</v>
       </c>
@@ -9602,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>20151216</v>
       </c>
@@ -9640,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>20151216</v>
       </c>
@@ -9678,7 +9688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>20151216</v>
       </c>
@@ -9716,7 +9726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>20151215</v>
       </c>
@@ -9754,7 +9764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>20151215</v>
       </c>
@@ -9792,7 +9802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>20151214</v>
       </c>
@@ -9830,7 +9840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>20151214</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>20151211</v>
       </c>
@@ -9906,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>20151211</v>
       </c>
@@ -9944,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>20151211</v>
       </c>
@@ -9982,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>20151210</v>
       </c>
@@ -10020,7 +10030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>20151210</v>
       </c>
@@ -10058,7 +10068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>20151210</v>
       </c>
@@ -10096,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>20151209</v>
       </c>
@@ -10134,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>20151208</v>
       </c>
@@ -10172,7 +10182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>20151208</v>
       </c>
@@ -10210,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>20151208</v>
       </c>
@@ -10248,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>20151207</v>
       </c>
@@ -10286,7 +10296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>20151207</v>
       </c>
@@ -10324,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>20151204</v>
       </c>
@@ -10362,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>20151204</v>
       </c>
@@ -10400,7 +10410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>20151203</v>
       </c>
@@ -10438,7 +10448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>20151202</v>
       </c>
@@ -10476,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>20151201</v>
       </c>
@@ -10514,7 +10524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>20151201</v>
       </c>
@@ -10552,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>20151127</v>
       </c>
@@ -10590,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>20151126</v>
       </c>
@@ -10628,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>20151126</v>
       </c>
@@ -10666,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>20151125</v>
       </c>
@@ -10704,7 +10714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>20151125</v>
       </c>
@@ -10742,7 +10752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>20151124</v>
       </c>
@@ -10780,7 +10790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>20151124</v>
       </c>
@@ -10818,7 +10828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>20151124</v>
       </c>
@@ -10856,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>20151123</v>
       </c>
@@ -10894,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>20151120</v>
       </c>
@@ -10932,7 +10942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>20151119</v>
       </c>
@@ -10970,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>20151119</v>
       </c>
@@ -11008,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>20151118</v>
       </c>
@@ -11046,7 +11056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>20151118</v>
       </c>
@@ -11084,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>20151117</v>
       </c>
@@ -11122,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>20151117</v>
       </c>
@@ -11160,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>20151117</v>
       </c>
@@ -11198,7 +11208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>20151117</v>
       </c>
@@ -11236,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>20151117</v>
       </c>
@@ -11274,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>20151116</v>
       </c>
@@ -11312,7 +11322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>20151113</v>
       </c>
@@ -11350,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>20151112</v>
       </c>
@@ -11388,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>20151112</v>
       </c>
@@ -11426,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>20151111</v>
       </c>
@@ -11464,7 +11474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>20151111</v>
       </c>
@@ -11502,7 +11512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>20151111</v>
       </c>
@@ -11540,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>20151109</v>
       </c>
@@ -11578,7 +11588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>20151109</v>
       </c>
@@ -11616,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>20151106</v>
       </c>
@@ -11654,7 +11664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>20151106</v>
       </c>
@@ -11692,7 +11702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>20151106</v>
       </c>
@@ -11730,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>20151106</v>
       </c>
@@ -11768,7 +11778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>20151105</v>
       </c>
@@ -11806,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>20151105</v>
       </c>
@@ -11844,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>20151104</v>
       </c>
@@ -11882,7 +11892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>20151104</v>
       </c>
@@ -11920,7 +11930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>20151104</v>
       </c>
@@ -11958,7 +11968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>20151030</v>
       </c>
@@ -11996,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>20151029</v>
       </c>
@@ -12034,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>20151029</v>
       </c>
@@ -12072,7 +12082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>20151029</v>
       </c>
@@ -12110,7 +12120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>20151028</v>
       </c>
@@ -12148,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>20151026</v>
       </c>
@@ -12186,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>20151026</v>
       </c>
@@ -12224,7 +12234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>20151026</v>
       </c>
@@ -12262,7 +12272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>20151023</v>
       </c>
@@ -12300,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>20151023</v>
       </c>
@@ -12338,7 +12348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>20151023</v>
       </c>
@@ -12376,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>20151023</v>
       </c>
@@ -12414,7 +12424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>20151023</v>
       </c>
@@ -12452,7 +12462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>20151023</v>
       </c>
@@ -12490,7 +12500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>20151023</v>
       </c>
@@ -12528,7 +12538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>20151022</v>
       </c>
@@ -12566,7 +12576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>20151022</v>
       </c>
@@ -12604,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>20151022</v>
       </c>
@@ -12642,7 +12652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>20151022</v>
       </c>
@@ -12680,7 +12690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>20151021</v>
       </c>
@@ -12718,7 +12728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>20151020</v>
       </c>
@@ -12756,7 +12766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>20151020</v>
       </c>
@@ -12794,7 +12804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>20151019</v>
       </c>
@@ -12832,7 +12842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>20151019</v>
       </c>
@@ -12870,7 +12880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>20151019</v>
       </c>
@@ -12908,7 +12918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>20151019</v>
       </c>
@@ -12946,7 +12956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>20151016</v>
       </c>
@@ -12984,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>20151016</v>
       </c>
@@ -13022,7 +13032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>20151016</v>
       </c>
@@ -13060,7 +13070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>20151016</v>
       </c>
@@ -13098,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>20151015</v>
       </c>
@@ -13136,7 +13146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>20151015</v>
       </c>
@@ -13174,7 +13184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>20151015</v>
       </c>
@@ -13212,7 +13222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>20151014</v>
       </c>
@@ -13250,7 +13260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>20150826</v>
       </c>
@@ -13288,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>20150716</v>
       </c>
@@ -13326,7 +13336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>20150713</v>
       </c>
@@ -13364,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>20150710</v>
       </c>
@@ -13402,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>20150701</v>
       </c>
@@ -13440,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>20150630</v>
       </c>
@@ -13478,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>20150616</v>
       </c>
@@ -13516,7 +13526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>20150611</v>
       </c>
@@ -13554,7 +13564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>20150611</v>
       </c>
@@ -13592,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>20150605</v>
       </c>
@@ -13630,7 +13640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>20150605</v>
       </c>
@@ -13668,7 +13678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>20150602</v>
       </c>
@@ -13706,7 +13716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>20150529</v>
       </c>
@@ -13744,7 +13754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>20150529</v>
       </c>
@@ -13782,7 +13792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>20150528</v>
       </c>
@@ -13820,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>20150525</v>
       </c>
@@ -13858,7 +13868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>20150521</v>
       </c>
@@ -13896,7 +13906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>20150520</v>
       </c>
@@ -13934,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>20150513</v>
       </c>
@@ -13972,7 +13982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>20150511</v>
       </c>
@@ -14010,7 +14020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>20150505</v>
       </c>
@@ -14048,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>20150415</v>
       </c>
@@ -14086,7 +14096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>20150331</v>
       </c>
@@ -14124,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>20150325</v>
       </c>
@@ -14162,7 +14172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>20150319</v>
       </c>
@@ -14200,7 +14210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>20150317</v>
       </c>
@@ -14238,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>20150316</v>
       </c>
@@ -14276,7 +14286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>20150311</v>
       </c>
@@ -14322,12 +14332,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
